--- a/GPS_TRAIN/lokasi.xlsx
+++ b/GPS_TRAIN/lokasi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Arduino\GPS_TRAIN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\ARDUINO_PROJECT\GPS_TRAIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F884C9-6112-45D8-B57D-86199E0E18C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8815EAE6-2472-42B8-847B-5E8CEF5579A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CD380CCA-84F3-4300-971A-27B03EBEE3EE}"/>
+    <workbookView xWindow="-17730" yWindow="630" windowWidth="15375" windowHeight="13230" xr2:uid="{CD380CCA-84F3-4300-971A-27B03EBEE3EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
   <si>
     <t>bekasi</t>
   </si>
@@ -130,13 +130,212 @@
   </si>
   <si>
     <t>-6.236004, 106.998315</t>
+  </si>
+  <si>
+    <t>angke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pondok jati </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kramat </t>
+  </si>
+  <si>
+    <t>gang sentiong</t>
+  </si>
+  <si>
+    <t>pasar senen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kemayoran </t>
+  </si>
+  <si>
+    <t>rajawali</t>
+  </si>
+  <si>
+    <t>kampung bandan</t>
+  </si>
+  <si>
+    <t>grogol</t>
+  </si>
+  <si>
+    <t>pesing</t>
+  </si>
+  <si>
+    <t>taman kota</t>
+  </si>
+  <si>
+    <t>bojong indah</t>
+  </si>
+  <si>
+    <t>rawa buaya</t>
+  </si>
+  <si>
+    <t>kalideres</t>
+  </si>
+  <si>
+    <t>poris</t>
+  </si>
+  <si>
+    <t>batu ceper</t>
+  </si>
+  <si>
+    <t>tanah tinggi</t>
+  </si>
+  <si>
+    <t>tangerang</t>
+  </si>
+  <si>
+    <t>bogor</t>
+  </si>
+  <si>
+    <t>cilebut</t>
+  </si>
+  <si>
+    <t>bojong gede</t>
+  </si>
+  <si>
+    <t>citayam</t>
+  </si>
+  <si>
+    <t>depok</t>
+  </si>
+  <si>
+    <t>depok baru</t>
+  </si>
+  <si>
+    <t>pondok cina</t>
+  </si>
+  <si>
+    <t>univ indonesia</t>
+  </si>
+  <si>
+    <t>univ pancasila</t>
+  </si>
+  <si>
+    <t>lenteng agung</t>
+  </si>
+  <si>
+    <t>tanjung barat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pasar minggu </t>
+  </si>
+  <si>
+    <t>pasar minggu baru</t>
+  </si>
+  <si>
+    <t>duren kalibata</t>
+  </si>
+  <si>
+    <t>cawang</t>
+  </si>
+  <si>
+    <t>tebet</t>
+  </si>
+  <si>
+    <t>manggarai</t>
+  </si>
+  <si>
+    <t>cikini</t>
+  </si>
+  <si>
+    <t>gondangdia</t>
+  </si>
+  <si>
+    <t>juanda</t>
+  </si>
+  <si>
+    <t>jayakarta</t>
+  </si>
+  <si>
+    <t>sawah besar</t>
+  </si>
+  <si>
+    <t>mangga besar</t>
+  </si>
+  <si>
+    <t>jakarta kota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancol </t>
+  </si>
+  <si>
+    <t>tanjung priok</t>
+  </si>
+  <si>
+    <t>tanah abang</t>
+  </si>
+  <si>
+    <t>palmerah</t>
+  </si>
+  <si>
+    <t>kebayoran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pondok ranji </t>
+  </si>
+  <si>
+    <t>jurang mangu</t>
+  </si>
+  <si>
+    <t>sudimara</t>
+  </si>
+  <si>
+    <t>rawa buntu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serpong </t>
+  </si>
+  <si>
+    <t>cisauk</t>
+  </si>
+  <si>
+    <t>cicayur</t>
+  </si>
+  <si>
+    <t>parung panjang</t>
+  </si>
+  <si>
+    <t>cilejit</t>
+  </si>
+  <si>
+    <t>daru</t>
+  </si>
+  <si>
+    <t>tenjo</t>
+  </si>
+  <si>
+    <t>tigaraksa</t>
+  </si>
+  <si>
+    <t>cikoya</t>
+  </si>
+  <si>
+    <t>maja</t>
+  </si>
+  <si>
+    <t>citeras</t>
+  </si>
+  <si>
+    <t>rangkasbitung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,16 +361,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,162 +688,581 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4A9935-ECD2-4FB9-A9FD-36044AB28F75}">
-  <dimension ref="B1:H15"/>
+  <dimension ref="B1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s">
+      <c r="E3" s="2"/>
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="4">
+        <v>-6209332</v>
+      </c>
+      <c r="G9" s="4">
+        <v>106862330</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4">
+        <v>-6193637</v>
+      </c>
+      <c r="G10" s="4">
+        <v>106856435</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="4">
+        <v>-6186654</v>
+      </c>
+      <c r="G11" s="4">
+        <v>106851291</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="4">
+        <v>-6174192</v>
+      </c>
+      <c r="G12" s="4">
+        <v>106844714</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-6162101</v>
+      </c>
+      <c r="G13" s="4">
+        <v>106841645</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="4">
+        <v>-6146431</v>
+      </c>
+      <c r="G14" s="4">
+        <v>106837239</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="4">
+        <v>-6132405</v>
+      </c>
+      <c r="G15" s="4">
+        <v>106828281</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5">
+        <v>-6144888</v>
+      </c>
+      <c r="D16" s="6">
+        <v>106800923</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-6162337</v>
+      </c>
+      <c r="D18" s="6">
+        <v>106789606</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4">
+        <v>-6161278</v>
+      </c>
+      <c r="D19" s="6">
+        <v>106772098</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="4">
+        <v>-6158692</v>
+      </c>
+      <c r="D20" s="6">
+        <v>106756996</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="4">
+        <v>-6159726</v>
+      </c>
+      <c r="D21" s="6">
+        <v>106737386</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="4">
+        <v>-6162535</v>
+      </c>
+      <c r="D22" s="6">
+        <v>106724035</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="4">
+        <v>-6166233</v>
+      </c>
+      <c r="D23" s="6">
+        <v>106703493</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="4">
+        <v>-6169829</v>
+      </c>
+      <c r="D24" s="6">
+        <v>106680158</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="4">
+        <v>-6172170</v>
+      </c>
+      <c r="D25" s="6">
+        <v>106665365</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="4">
+        <v>-6175304</v>
+      </c>
+      <c r="D26" s="6">
+        <v>106646509</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="4">
+        <v>-6176933</v>
+      </c>
+      <c r="D27" s="6">
+        <v>106633167</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GPS_TRAIN/lokasi.xlsx
+++ b/GPS_TRAIN/lokasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\ARDUINO_PROJECT\GPS_TRAIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8815EAE6-2472-42B8-847B-5E8CEF5579A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DF841D-9A50-4B27-B7F5-0D429D3C2183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17730" yWindow="630" windowWidth="15375" windowHeight="13230" xr2:uid="{CD380CCA-84F3-4300-971A-27B03EBEE3EE}"/>
+    <workbookView xWindow="2625" yWindow="0" windowWidth="15375" windowHeight="13230" xr2:uid="{CD380CCA-84F3-4300-971A-27B03EBEE3EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="139">
   <si>
     <t>bekasi</t>
   </si>
@@ -319,6 +319,138 @@
   </si>
   <si>
     <t>rangkasbitung</t>
+  </si>
+  <si>
+    <t>-6.530679, 106.800678</t>
+  </si>
+  <si>
+    <t>-6.493270, 106.795043</t>
+  </si>
+  <si>
+    <t>-6.448848, 106.802341</t>
+  </si>
+  <si>
+    <t>-6.405274, 106.816943</t>
+  </si>
+  <si>
+    <t>-6.391018, 106.821518</t>
+  </si>
+  <si>
+    <t>-6.368958, 106.832095</t>
+  </si>
+  <si>
+    <t>-6.360760, 106.831799</t>
+  </si>
+  <si>
+    <t>-6.338336, 106.834459</t>
+  </si>
+  <si>
+    <t>-6.330346, 106.834663</t>
+  </si>
+  <si>
+    <t>-6.307789, 106.838972</t>
+  </si>
+  <si>
+    <t>-6.283648, 106.844660</t>
+  </si>
+  <si>
+    <t>-6.262576, 106.851871</t>
+  </si>
+  <si>
+    <t>-6.255531, 106.855034</t>
+  </si>
+  <si>
+    <t>-6.242702, 106.858667</t>
+  </si>
+  <si>
+    <t>-6.225609, 106.858180</t>
+  </si>
+  <si>
+    <t>-6.198454730769997, 106.84127911315963</t>
+  </si>
+  <si>
+    <t>-6.1860101160886005, 106.83266989532953</t>
+  </si>
+  <si>
+    <t>-6.166751854185364, 106.83050153485775</t>
+  </si>
+  <si>
+    <t>-6.160674459633043, 106.8276436977156</t>
+  </si>
+  <si>
+    <t>-6.14973411301062, 106.82698779627836</t>
+  </si>
+  <si>
+    <t>-6.141223851634711, 106.82299953738588</t>
+  </si>
+  <si>
+    <t>-6.1374061669346025, 106.81522172060474</t>
+  </si>
+  <si>
+    <t>-6.13254606480616, 106.82854133547976</t>
+  </si>
+  <si>
+    <t>-6.127908586071993, 106.84510276742577</t>
+  </si>
+  <si>
+    <t>-6.112105634377131, 106.87961959607831</t>
+  </si>
+  <si>
+    <t>-6.185699032563078, 106.81085408964343</t>
+  </si>
+  <si>
+    <t>-6.207444666324823, 106.79740145393299</t>
+  </si>
+  <si>
+    <t>-6.237248127611782, 106.78251655565104</t>
+  </si>
+  <si>
+    <t>-6.2764720229486155, 106.74499055412248</t>
+  </si>
+  <si>
+    <t>-6.28878065796706, 106.72905635208599</t>
+  </si>
+  <si>
+    <t>-6.2969575295782505, 106.71278078092152</t>
+  </si>
+  <si>
+    <t>-6.314856484882869, 106.67603292509877</t>
+  </si>
+  <si>
+    <t>-6.320233975325586, 106.66559056867538</t>
+  </si>
+  <si>
+    <t>-6.324428475955191, 106.64155630975696</t>
+  </si>
+  <si>
+    <t>-6.32951998273367, 106.61900632939279</t>
+  </si>
+  <si>
+    <t>-6.344337740017177, 106.56980000780074</t>
+  </si>
+  <si>
+    <t>-6.35424790648943, 106.50961534467415</t>
+  </si>
+  <si>
+    <t>-6.327413886062613, 106.4616444964991</t>
+  </si>
+  <si>
+    <t>-6.337972677345819, 106.49255001346468</t>
+  </si>
+  <si>
+    <t>-6.328526628229025, 106.4347343692759</t>
+  </si>
+  <si>
+    <t>-6.335695963430852, 106.41180072509896</t>
+  </si>
+  <si>
+    <t>-6.332509469407148, 106.39649027543561</t>
+  </si>
+  <si>
+    <t>-6.334947387687283, 106.33262265581499</t>
+  </si>
+  <si>
+    <t>-6.352788948852212, 106.25148030185524</t>
   </si>
 </sst>
 </file>
@@ -690,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4A9935-ECD2-4FB9-A9FD-36044AB28F75}">
   <dimension ref="B1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,235 +1162,373 @@
       <c r="B29" t="s">
         <v>50</v>
       </c>
+      <c r="C29" s="4">
+        <v>-6594399</v>
+      </c>
+      <c r="D29" s="6">
+        <v>106790626</v>
+      </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>51</v>
       </c>
+      <c r="C30" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>52</v>
       </c>
+      <c r="C31" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C69" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C70" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C72" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C73" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C74" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C75" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C76" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>94</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
